--- a/现金流量表/002323.xlsx
+++ b/现金流量表/002323.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>004</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-06-30 00:00:00</t>
+          <t>2017-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-318624138.4</v>
+        <v>-299059278.04</v>
       </c>
       <c r="P2" t="n">
-        <v>-472.1767944847</v>
+        <v>-294.1697714549</v>
       </c>
       <c r="Q2" t="n">
-        <v>331150494.04</v>
+        <v>505508660.84</v>
       </c>
       <c r="R2" t="n">
-        <v>490.7399029874</v>
+        <v>497.2437845847</v>
       </c>
       <c r="S2" t="n">
-        <v>27154960.84</v>
+        <v>42286692.73</v>
       </c>
       <c r="T2" t="n">
-        <v>40.2415913251</v>
+        <v>41.5953212269</v>
       </c>
       <c r="U2" t="n">
-        <v>-2281571.04</v>
+        <v>-2858588.48</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.3811151455</v>
+        <v>-2.8118516348</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>2281581.04</v>
+        <v>2858588.48</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.3811299647</v>
+        <v>2.8118516348</v>
       </c>
       <c r="AA2" t="n">
-        <v>253425870.93</v>
+        <v>200217651.84</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.5579096302</v>
+        <v>196.9441686244</v>
       </c>
       <c r="AC2" t="n">
-        <v>-67479838.51000001</v>
+        <v>-101662137.67</v>
       </c>
       <c r="AD2" t="n">
-        <v>-74.5953570404</v>
+        <v>-100.6589334423</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
